--- a/pw/questions.xlsx
+++ b/pw/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alverer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alverer\Documents\GitHub\ProtoProjectNG2\pw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection sqref="A1:E78"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G84" sqref="G83:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
